--- a/biology/Médecine/Méthode_Feldenkrais/Méthode_Feldenkrais.xlsx
+++ b/biology/Médecine/Méthode_Feldenkrais/Méthode_Feldenkrais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9thode_Feldenkrais</t>
+          <t>Méthode_Feldenkrais</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Méthode Feldenkrais amène à prendre conscience de notre corps à travers le mouvement dans l’espace, dans l'environnement et à travers les sensations kinesthésiques qui y sont reliées.
 La méthode Feldenkrais, pour la plupart de ses pratiquants, est une forme d'auto-éducation, de développement personnel et de recherche corps-esprit, plutôt qu'une thérapie manuelle.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9thode_Feldenkrais</t>
+          <t>Méthode_Feldenkrais</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Méthode Feldenkrais a été créée par Moshe Feldenkrais (1904-1984), né en Ukraine et émigré en Palestine dans les années 1920, puis en France dans les années 1930. Durant cette période, il obtient un diplôme d'ingénieur de l'ESTP, puis une thèse de doctorat en physique dans le laboratoire des physiciens Paul Langevin et Frédéric Joliot-Curie. Dans le même temps, il fait la rencontre de Jigorō Kanō, le fondateur du Judo, lors d’une visite de celui-ci à Paris. Feldenkrais apprend le Judo. Il devient Ceinture Noire et participe à la création du club de Jiu-jitsu en France, embryon de la future fédération Française de Judo[réf. nécessaire].
 Durant la guerre, Moshe Feldenkrais travaille dans les services secrets de la marine britannique. C’est là qu’il aggrave une blessure au genou[réf. nécessaire].
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9thode_Feldenkrais</t>
+          <t>Méthode_Feldenkrais</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Objectifs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les apprentissages visés sont variés :
 la recherche d’une organisation plus aisée et efficace pour ses actions, tant dans la vie quotidienne que dans la pratique d’un sport ou d’un art,
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A9thode_Feldenkrais</t>
+          <t>Méthode_Feldenkrais</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,96 +599,101 @@
           <t>Pratique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Méthode Feldenkrais se pratique :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Méthode Feldenkrais se pratique :
 en séances collectives : « Prise de conscience par le mouvement » (PCM)
-en séances individuelles : « Intégration fonctionnelle » (IF)
-Leçons de prise de conscience par le mouvement (leçons collectives)
-Lors d’une séance collective, le praticien ne fait pas la démonstration des mouvements à exécuter. Il propose oralement aux participants d’explorer des mouvements habituels ou inhabituels. Il les invite à focaliser leur attention sur leurs sensations et sur les relations entre les différentes parties de leur squelette.
+en séances individuelles : « Intégration fonctionnelle » (IF)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Méthode_Feldenkrais</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9thode_Feldenkrais</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Pratique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Leçons de prise de conscience par le mouvement (leçons collectives)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors d’une séance collective, le praticien ne fait pas la démonstration des mouvements à exécuter. Il propose oralement aux participants d’explorer des mouvements habituels ou inhabituels. Il les invite à focaliser leur attention sur leurs sensations et sur les relations entre les différentes parties de leur squelette.
 Les mouvements sont effectués lentement, sans efforts musculaires inutiles, sans esprit de compétition.
 Chacun agit à son propre rythme et expérimente pour lui-même la solution la mieux adaptée à ses schémas de comportement.
-L'intégration fonctionnelle (leçons individuelles)
-Dans une séance individuelle, le praticien guide, par le toucher, la personne dans sa prise de conscience et dans son apprentissage.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Méthode_Feldenkrais</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9thode_Feldenkrais</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Pratique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>L'intégration fonctionnelle (leçons individuelles)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans une séance individuelle, le praticien guide, par le toucher, la personne dans sa prise de conscience et dans son apprentissage.
 Il ne s’agit pas de manipulations au sens thérapeutique du terme.
 Le praticien invite manuellement la personne à être à l’écoute d’elle-même et lui suggère de façon douce, précise et non intrusive de nouvelles possibilités d’organisation.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>M%C3%A9thode_Feldenkrais</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/M%C3%A9thode_Feldenkrais</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Liens avec les autres méthodes d'éducation somatique</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour parler de la méthode Feldenkrais et de méthodes « cousines », telles que la technique Alexander (Frederick Matthias Alexander), l’eutonie (Gerda Alexander), le Body-Mind Centering (Bonnie Bainbridge Cohen), l'ismakogie ou la gymnastique holistique (Lily Ehrenfried), des praticiens québécois ont proposé le concept d’« éducation somatique »
-[1].
-Parmi les disciplines somatiques influencées par Feldenkrais, on peut citer [réf. nécessaire] : Hanna Somatics, Synergie Rubenfeld, Tellington Touch (pour les animaux), la méthode Anat Baniel, System Sounder Sleep, Bones for Life.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>M%C3%A9thode_Feldenkrais</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/M%C3%A9thode_Feldenkrais</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Évaluation scientifique[2]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des études cliniques cherchant à mettre en évidence l'efficacité de la méthode Feldenkrais ont porté sur les symptômes de certaines maladies comme la sclérose en plaques[3] ou l'asthme[4]. 
-Une revue Cochrane de 1999 concluait qu'il n'y avait aucune étude rigoureuse permettant de montrer l'efficacité de la méthode sur l'asthme[4]. Il existe une étude datant de 2005 qui a réalisé un récapitulatif des différents essais cliniques randomisés portant sur la méthode Feldenkrais. Seuls six ont pu être inclus, les autres ne respectant pas les standards de rigueur méthodologique. Les auteurs concluent qu'il est impossible d'étayer l'efficacité de la méthode au vu des faiblesses méthodologiques des essais[5].  
-En 2015, une nouvelle étude passe en revue les publications sur le sujet et trouve 14 nouvelles publications respectant les standards de rigueur méthodologique. Les auteurs concluent que plusieurs études rapportent des effets positifs pour réduire l'effort perçu, améliorer le confort, l'image corporelle et la dextérité mais qu'il existe un fort risque de biais statistique. Ils obtiennent toutefois des résultats tangibles en menant une méta-analyse avec 7 de ces études qui leur permettent de conclure à l'amélioration de l'équilibre chez des populations vieillissantes[6].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>M%C3%A9thode_Feldenkrais</t>
+          <t>Méthode_Feldenkrais</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -687,10 +708,82 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Liens avec les autres méthodes d'éducation somatique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour parler de la méthode Feldenkrais et de méthodes « cousines », telles que la technique Alexander (Frederick Matthias Alexander), l’eutonie (Gerda Alexander), le Body-Mind Centering (Bonnie Bainbridge Cohen), l'ismakogie ou la gymnastique holistique (Lily Ehrenfried), des praticiens québécois ont proposé le concept d’« éducation somatique »
+.
+Parmi les disciplines somatiques influencées par Feldenkrais, on peut citer [réf. nécessaire] : Hanna Somatics, Synergie Rubenfeld, Tellington Touch (pour les animaux), la méthode Anat Baniel, System Sounder Sleep, Bones for Life.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Méthode_Feldenkrais</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9thode_Feldenkrais</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Évaluation scientifique[2]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des études cliniques cherchant à mettre en évidence l'efficacité de la méthode Feldenkrais ont porté sur les symptômes de certaines maladies comme la sclérose en plaques ou l'asthme. 
+Une revue Cochrane de 1999 concluait qu'il n'y avait aucune étude rigoureuse permettant de montrer l'efficacité de la méthode sur l'asthme. Il existe une étude datant de 2005 qui a réalisé un récapitulatif des différents essais cliniques randomisés portant sur la méthode Feldenkrais. Seuls six ont pu être inclus, les autres ne respectant pas les standards de rigueur méthodologique. Les auteurs concluent qu'il est impossible d'étayer l'efficacité de la méthode au vu des faiblesses méthodologiques des essais.  
+En 2015, une nouvelle étude passe en revue les publications sur le sujet et trouve 14 nouvelles publications respectant les standards de rigueur méthodologique. Les auteurs concluent que plusieurs études rapportent des effets positifs pour réduire l'effort perçu, améliorer le confort, l'image corporelle et la dextérité mais qu'il existe un fort risque de biais statistique. Ils obtiennent toutefois des résultats tangibles en menant une méta-analyse avec 7 de ces études qui leur permettent de conclure à l'amélioration de l'équilibre chez des populations vieillissantes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Méthode_Feldenkrais</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9thode_Feldenkrais</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>France</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">La population pratiquant en France est assez variée. Plusieurs groupes sont représentés : des artistes de la scène (danseurs, musiciens, acteurs, marionnettistes...), des sportifs de toute discipline, des personnes en rééducation à la suite d'un traumatisme, des enfants en apprentissage, des personnes âgées ou en perte de capacités. Selon les centres d’intérêt du praticien, on trouvera aussi parmi les élèves des pratiquants d’arts martiaux, des personnes handicapées, ou toute autre particularité.
 </t>
